--- a/data/trans_orig/P14C98-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C98-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E4F5146-969D-460E-B02B-7DE95DAF57A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49D8B889-6101-4CA0-B912-1D75CB27FE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B4CA3EA8-14FE-40DD-9F6E-DE6FA5FCF098}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4211117-B0B6-4263-B5FA-2D90DFF29AD0}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="71">
   <si>
     <t>Población según el tiempo de diagnóstico de la enfermedad 2 en 2015 (Tasa respuesta: 0,33%)</t>
   </si>
@@ -137,28 +137,28 @@
     <t>70,32%</t>
   </si>
   <si>
-    <t>26,42%</t>
+    <t>26,45%</t>
   </si>
   <si>
     <t>75,23%</t>
   </si>
   <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
   <si>
     <t>29,68%</t>
   </si>
   <si>
-    <t>73,58%</t>
+    <t>73,55%</t>
   </si>
   <si>
     <t>16,47%</t>
   </si>
   <si>
-    <t>43,79%</t>
+    <t>49,75%</t>
   </si>
   <si>
     <t>18,65%</t>
@@ -173,7 +173,7 @@
     <t>8,3%</t>
   </si>
   <si>
-    <t>38,0%</t>
+    <t>34,86%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,52 +194,49 @@
     <t>75,52%</t>
   </si>
   <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
   </si>
   <si>
     <t>80,12%</t>
   </si>
   <si>
-    <t>41,19%</t>
+    <t>46,5%</t>
   </si>
   <si>
     <t>77,62%</t>
   </si>
   <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
   </si>
   <si>
     <t>16,07%</t>
   </si>
   <si>
-    <t>42,96%</t>
-  </si>
-  <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>58,81%</t>
+    <t>53,5%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>38,68%</t>
+    <t>34,51%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -248,7 +245,7 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>23,16%</t>
+    <t>20,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -663,7 +660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C242827-2F25-4E0D-A7DA-2DF66B839746}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C96AB9-AD3C-419B-A632-2C24CF65170D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1454,7 +1451,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1463,13 +1460,13 @@
         <v>2151</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1478,13 +1475,13 @@
         <v>4221</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1499,13 +1496,13 @@
         <v>1084</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1520,7 +1517,7 @@
         <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1529,13 +1526,13 @@
         <v>1084</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1591,7 +1588,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C98-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C98-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49D8B889-6101-4CA0-B912-1D75CB27FE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{479D494F-5736-492C-9ACF-C2AAC090279E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4211117-B0B6-4263-B5FA-2D90DFF29AD0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{34D61FED-ADDF-4EEE-9133-13DC31BF5FA4}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="71">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la enfermedad 2 en 2015 (Tasa respuesta: 0,33%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="72">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la enfermedad 2 en 2016 (Tasa respuesta: 0,33%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>79,35%</t>
   </si>
   <si>
-    <t>20,5%</t>
+    <t>16,75%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -89,7 +89,7 @@
     <t>87,87%</t>
   </si>
   <si>
-    <t>49,66%</t>
+    <t>41,51%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -101,7 +101,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>79,5%</t>
+    <t>83,25%</t>
   </si>
   <si>
     <t>0%</t>
@@ -113,7 +113,7 @@
     <t>12,13%</t>
   </si>
   <si>
-    <t>50,34%</t>
+    <t>58,49%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -131,40 +131,40 @@
     <t>81,35%</t>
   </si>
   <si>
-    <t>27,81%</t>
+    <t>18,23%</t>
   </si>
   <si>
     <t>70,32%</t>
   </si>
   <si>
-    <t>26,45%</t>
+    <t>26,79%</t>
   </si>
   <si>
     <t>75,23%</t>
   </si>
   <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>29,68%</t>
   </si>
   <si>
-    <t>73,55%</t>
+    <t>73,21%</t>
   </si>
   <si>
     <t>16,47%</t>
   </si>
   <si>
-    <t>49,75%</t>
+    <t>45,72%</t>
   </si>
   <si>
     <t>18,65%</t>
   </si>
   <si>
-    <t>72,19%</t>
+    <t>81,77%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -173,7 +173,7 @@
     <t>8,3%</t>
   </si>
   <si>
-    <t>34,86%</t>
+    <t>35,21%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,49 +194,52 @@
     <t>75,52%</t>
   </si>
   <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>80,12%</t>
   </si>
   <si>
-    <t>46,5%</t>
+    <t>36,96%</t>
   </si>
   <si>
     <t>77,62%</t>
   </si>
   <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
   </si>
   <si>
     <t>16,07%</t>
   </si>
   <si>
+    <t>42,66%</t>
+  </si>
+  <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>53,5%</t>
+    <t>63,04%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>34,51%</t>
+    <t>39,94%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -245,7 +248,7 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>20,95%</t>
+    <t>22,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -660,7 +663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C96AB9-AD3C-419B-A632-2C24CF65170D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C16398B-30DA-4FD2-82FC-AC577D94C54E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1451,7 +1454,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1460,13 +1463,13 @@
         <v>2151</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1475,13 +1478,13 @@
         <v>4221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1496,13 +1499,13 @@
         <v>1084</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1517,7 +1520,7 @@
         <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1526,13 +1529,13 @@
         <v>1084</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1588,7 +1591,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
